--- a/Backend/reservations.xlsx
+++ b/Backend/reservations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
   <si>
     <t>Priyank12</t>
   </si>
@@ -32,6 +32,33 @@
   </si>
   <si>
     <t>01:51</t>
+  </si>
+  <si>
+    <t>Tushar</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>05:05</t>
+  </si>
+  <si>
+    <t>priyank</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>04:12</t>
+  </si>
+  <si>
+    <t>vadapav</t>
+  </si>
+  <si>
+    <t>2024-02-23</t>
+  </si>
+  <si>
+    <t>04:29</t>
   </si>
 </sst>
 </file>
@@ -373,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -547,6 +574,62 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backend/reservations.xlsx
+++ b/Backend/reservations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
   <si>
     <t>Priyank12</t>
   </si>
@@ -59,6 +59,48 @@
   </si>
   <si>
     <t>04:29</t>
+  </si>
+  <si>
+    <t>pitliyapriyank@gmail.com</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
+    <t>20:39</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
+    <t>19:02</t>
+  </si>
+  <si>
+    <t>gigi</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>21:08</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>23:20</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>22:33</t>
+  </si>
+  <si>
+    <t>2024-04-14</t>
+  </si>
+  <si>
+    <t>19:34</t>
   </si>
 </sst>
 </file>
@@ -400,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -630,6 +672,90 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backend/reservations.xlsx
+++ b/Backend/reservations.xlsx
@@ -8,99 +8,44 @@
   </bookViews>
   <sheets>
     <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="branch3" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="branch1" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
-  <si>
-    <t>Priyank12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>priyank</t>
+  </si>
+  <si>
+    <t>pitliyapriyank@gmail.com</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
+    <t>19:00</t>
   </si>
   <si>
     <t>pitliyapriyank22@gmail.com</t>
   </si>
   <si>
-    <t>2024-04-09</t>
-  </si>
-  <si>
-    <t>12:50</t>
-  </si>
-  <si>
-    <t>02:51</t>
-  </si>
-  <si>
-    <t>01:51</t>
-  </si>
-  <si>
-    <t>Tushar</t>
-  </si>
-  <si>
-    <t>2024-03-22</t>
-  </si>
-  <si>
-    <t>05:05</t>
-  </si>
-  <si>
-    <t>priyank</t>
-  </si>
-  <si>
-    <t>2025-02-07</t>
-  </si>
-  <si>
-    <t>04:12</t>
-  </si>
-  <si>
-    <t>vadapav</t>
-  </si>
-  <si>
-    <t>2024-02-23</t>
-  </si>
-  <si>
-    <t>04:29</t>
-  </si>
-  <si>
-    <t>pitliyapriyank@gmail.com</t>
-  </si>
-  <si>
-    <t>2024-04-23</t>
-  </si>
-  <si>
-    <t>20:39</t>
-  </si>
-  <si>
-    <t>2024-04-24</t>
-  </si>
-  <si>
-    <t>19:02</t>
-  </si>
-  <si>
-    <t>gigi</t>
-  </si>
-  <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
-    <t>21:08</t>
-  </si>
-  <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>23:20</t>
-  </si>
-  <si>
-    <t>2024-04-25</t>
-  </si>
-  <si>
-    <t>22:33</t>
-  </si>
-  <si>
-    <t>2024-04-14</t>
-  </si>
-  <si>
-    <t>19:34</t>
+    <t>19:55</t>
   </si>
 </sst>
 </file>
@@ -442,11 +387,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -464,299 +418,59 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
         <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>